--- a/data/pricelists/processed/dns_pricelist_1.xlsx
+++ b/data/pricelists/processed/dns_pricelist_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\GolandProjects\StartupPCConfigurator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\GolandProjects\StartupPCConfigurator\data\pricelists\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1446B35-30F1-495E-840E-45DF1F84FA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53D3168-DF3F-466D-99F8-DDB4414CC409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6170" yWindow="3890" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,7 +472,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>14499</v>
+        <v>9099</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>16899</v>
+        <v>12299</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>

--- a/data/pricelists/processed/dns_pricelist_1.xlsx
+++ b/data/pricelists/processed/dns_pricelist_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\GolandProjects\StartupPCConfigurator\data\pricelists\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53D3168-DF3F-466D-99F8-DDB4414CC409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B136F7C5-619F-4C99-8F71-585CCC92EFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6170" yWindow="3890" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="47">
   <si>
     <t>ComponentID</t>
   </si>
@@ -55,7 +55,112 @@
     <t>https://www.dns-shop.ru/product/d3c6a3f806feed20/processor-intel-core-i5-12400-oem/</t>
   </si>
   <si>
-    <t>https://www.dns-shop.ru/product/ef42e95e5af71b80/videokarta-palit-geforce-rtx-3060-dual-lhr-ne63060019k9-190ad/</t>
+    <t>Нет в наличии</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/75bdc52138b2ed20/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/c6ce956d7234ed20/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/94e74a2e3944ed20/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/ef42e95e5af71b80/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/8156e06982cc2ff0/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/df050ef:contentReference%5Boaicite:8%5D%7Bindex=8%7DAMD</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/4c3d4bf7fae6ed20</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/a2d69ca67901ed20</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/b9a4575dafa61b80/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/30890699f07c7df9/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/9b5ef663f9f6ed20/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/3fbe2834446aed20/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/c2a776b2a8dfed20/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/91711534ecb7ed20/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/4c3d4bf7fae6ed20/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/a2d69ca67901ed20/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/6586ce61b8862714/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/1d6ac5fee2bd37ad/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/e5bc121a1873ed20/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/68427d56244fed20/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/346576c595a62ff0/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/9eecd61ee65fed20/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/2e83dce0ebc0ed20/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/c6ee3f1f9f8d2ff4/</t>
+  </si>
+  <si>
+    <t>https://www.dns-shop.ru/product/59076c2ce65ced20/</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/hdd_western_digital/HDD-1-Tb-SATA-6Gb-s-Western-Digital-Blue-WD10EZEX-35-7200rpm-64Mb_140294.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_seasonic/Blok-pitaniya-Seasonic-FOCUS-GX-650-SSR-650FX-650W-ATX-24-plus-4x4-plus-4x6-8pin-Cable-Management_483695.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_corsair/Blok-pitaniya-Corsair-RM750x-CP-9020092-EU-750W-ATX-24-plus-2x4-plus-4x6-8pin-Cable-Management_219343.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_be_quiet/Blok-pitaniya-be-quiet-PURE-POWER-12-M-L12-M-850W-850W-ATX-24-plus-4x4-plus-16-plus-4x6-8pin-Cable-Management-BN344_731953.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_corsair/Blok-pitaniya-Corsair-RM750x-CP-9020179-EU-750W-ATX-24-plus-4x4-plus-4x6-8pin-Cable-Management_347445.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_coolermaster/Blok-pitaniya-Cooler-Master-MPY-8501-SFHAGV-EU-850W-ATX-24-plus-2x4-plus-8-plus-4x6-8pin-Cable-Management_498341.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_seasonic/Blok-pitaniya-Seasonic-Prime-Ultra-Titanium-1000-SSR-1000TR-1000W-24-plus-4x4-plus-8x6-8pin-Cable-Management_399188.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_thermaltake/Blok-pitaniya-Thermaltake-PS-TPD-1200FNFAGE-4-Toughpower-GF3-1200W-24-plus-4x4-plus-16-plus-4x6-8pin-Cable-Management_748271.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_other/Blok-pitaniya-MSI-MPG-A850G-PCIE5-850W-ATX-24-plus-4x4-plus-16-plus-6x6-8pin-Cable-Management_739912.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/cases_NZXT/Korpus-NZXT-H510-V2-CA-H52FB-01-chernyj-bez-BP-ATX-2x120mm-3x140mm-1xUSB30-audio-bott-PSU_616555.html</t>
   </si>
 </sst>
 </file>
@@ -125,12 +230,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -436,13 +542,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="175.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -472,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>9099</v>
+        <v>8999</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -512,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>25999</v>
+        <v>27999</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -521,14 +631,2440 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>36999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>45399</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>28665</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>39999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>59999</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>11699</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>15199</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>15399</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>10899</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>17699</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>22999</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>12999</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>3799</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6799</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>10999</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>15699</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>27799</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>11999</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>8599</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>7299</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>11399</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>10499</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>23999</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>6099</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>6225</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>4606</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>4592</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>8011</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>5265</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>24334</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>25755</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>17296</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>5541</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3">
+        <v>22500</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3">
+        <v>15000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3">
+        <v>13000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5400</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3">
+        <v>12000</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3">
+        <v>7100</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3800</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3">
+        <v>23000</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3">
+        <v>62000</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3">
+        <v>120000</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3">
+        <v>115000</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3">
+        <v>21000</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="3">
+        <v>92000</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="3">
+        <v>68000</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3">
+        <v>52000</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="3">
+        <v>49000</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3">
+        <v>83000</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="3">
+        <v>88000</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3">
+        <v>34500</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="3">
+        <v>33500</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="3">
+        <v>17500</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3">
+        <v>17500</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="3">
+        <v>13500</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="3">
+        <v>23500</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="3">
+        <v>21500</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="3">
+        <v>26000</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="3">
+        <v>25500</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="3">
+        <v>27000</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="3">
+        <v>11500</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="3">
+        <v>17500</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="3">
+        <v>27000</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="3">
+        <v>57000</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="3">
+        <v>12500</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="3">
+        <v>3200</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="3">
+        <v>5200</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="3">
+        <v>14500</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="3">
+        <v>4500</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="3">
+        <v>21000</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="3">
+        <v>7200</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="3">
+        <v>10800</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="3">
+        <v>6500</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2800</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="3">
+        <v>2700</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="3">
+        <v>9500</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="3">
+        <v>18000</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="3">
+        <v>5200</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="3">
+        <v>8500</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="3">
+        <v>9800</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="3">
+        <v>11200</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="3">
+        <v>6200</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="3">
+        <v>14500</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="3">
+        <v>3800</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="3">
+        <v>5800</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="3">
+        <v>7200</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="3">
+        <v>9800</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="3">
+        <v>9500</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1900</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="3">
+        <v>40500</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="3">
+        <v>27500</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="3">
+        <v>25200</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="3">
+        <v>8500</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="3">
+        <v>11000</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="3">
+        <v>6200</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="3">
+        <v>950</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{F5329F56-3205-4CA5-86B2-E344BB8A2D75}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{32BE3F50-A116-46B8-B3AE-5192D46A786C}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{B8F20577-43FE-4213-AAC7-15BA03D75694}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{57003BC9-30C9-407B-98ED-ABD19531B5D9}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{3D889765-9EB5-4FA7-8C85-8DE235A41BEE}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{EFB08B04-86D2-4297-A164-DFC589FABA94}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{C87F6E4E-A656-4192-B321-8085FB13596F}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{721A9482-9BEC-4BE8-A8F2-3DB319DC0A3E}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{333AEA49-269B-4676-A207-130B141155BB}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{6F1512E9-D2CD-4CE0-A087-15D9634EC9B3}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{AC6FF62A-1001-4268-AD73-5EA78F4D356E}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{AD18C4AE-90A0-45C1-A023-E02839A1F5F8}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{B7444749-B2AB-465E-8134-95BDE0528760}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{DFFDF1B9-8515-4550-B634-E51F5059F0BA}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{B98CAE52-C46D-4F30-9EAD-BDCC24B5A641}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{ECD7F3DC-7678-44D1-A0C1-3F6AEFDF3A31}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{18FC71CF-AC08-4552-8AE2-CEECA71E3ACD}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{26A2FC22-878B-4157-823A-5AEF42674AF6}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{808B943D-0E8B-4153-8636-C552AB2B6B1B}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{43DAA938-4494-4A93-A27F-DF4226191571}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{5C9B3BD3-022F-474D-8C9B-DC0AC15C12AA}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{D8B267D8-2980-4683-8509-9E930FC13C59}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{040AC104-1405-4CA6-931F-EDAAACA99F4E}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{8331DB3D-FC48-4129-8FAA-32DA6BA6A94D}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{AB173AE3-AD26-40EB-985B-651EAC9BC155}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{82AC1648-18D4-4E0D-898C-524681080481}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{42522C9A-DD93-4869-A158-56F47971B7F7}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{D88E752F-B5F8-4679-A1CA-52838798B59E}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F42:F124" r:id="rId41" display="https://www.nix.ru/autocatalog/cases_NZXT/Korpus-NZXT-H510-V2-CA-H52FB-01-chernyj-bez-BP-ATX-2x120mm-3x140mm-1xUSB30-audio-bott-PSU_616555.html" xr:uid="{DD9A66F1-83FD-4D3A-BAC9-F5012E8218E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pricelists/processed/dns_pricelist_1.xlsx
+++ b/data/pricelists/processed/dns_pricelist_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\GolandProjects\StartupPCConfigurator\data\pricelists\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B136F7C5-619F-4C99-8F71-585CCC92EFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F498E996-96AB-4EEF-A65C-D168229ED0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,13 +230,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -544,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1021,6 +1020,9 @@
       <c r="B24" t="s">
         <v>6</v>
       </c>
+      <c r="C24">
+        <v>9999</v>
+      </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
@@ -1038,6 +1040,9 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
+      <c r="C25">
+        <v>8990</v>
+      </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
@@ -1055,6 +1060,9 @@
       <c r="B26" t="s">
         <v>6</v>
       </c>
+      <c r="C26">
+        <v>8499</v>
+      </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
@@ -1369,7 +1377,7 @@
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>16000</v>
       </c>
       <c r="D42" t="s">
@@ -1389,7 +1397,7 @@
       <c r="B43" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>22500</v>
       </c>
       <c r="D43" t="s">
@@ -1409,7 +1417,7 @@
       <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>15000</v>
       </c>
       <c r="D44" t="s">
@@ -1429,7 +1437,7 @@
       <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>9000</v>
       </c>
       <c r="D45" t="s">
@@ -1449,7 +1457,7 @@
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>13000</v>
       </c>
       <c r="D46" t="s">
@@ -1469,7 +1477,7 @@
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>5500</v>
       </c>
       <c r="D47" t="s">
@@ -1489,7 +1497,7 @@
       <c r="B48" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <v>11000</v>
       </c>
       <c r="D48" t="s">
@@ -1509,7 +1517,7 @@
       <c r="B49" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>5400</v>
       </c>
       <c r="D49" t="s">
@@ -1529,7 +1537,7 @@
       <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <v>12000</v>
       </c>
       <c r="D50" t="s">
@@ -1549,7 +1557,7 @@
       <c r="B51" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51">
         <v>7100</v>
       </c>
       <c r="D51" t="s">
@@ -1569,7 +1577,7 @@
       <c r="B52" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52">
         <v>7200</v>
       </c>
       <c r="D52" t="s">
@@ -1589,7 +1597,7 @@
       <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53">
         <v>3800</v>
       </c>
       <c r="D53" t="s">
@@ -1609,7 +1617,7 @@
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54">
         <v>30000</v>
       </c>
       <c r="D54" t="s">
@@ -1629,7 +1637,7 @@
       <c r="B55" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55">
         <v>23000</v>
       </c>
       <c r="D55" t="s">
@@ -1649,7 +1657,7 @@
       <c r="B56" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56">
         <v>62000</v>
       </c>
       <c r="D56" t="s">
@@ -1669,7 +1677,7 @@
       <c r="B57" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57">
         <v>30000</v>
       </c>
       <c r="D57" t="s">
@@ -1689,7 +1697,7 @@
       <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58">
         <v>120000</v>
       </c>
       <c r="D58" t="s">
@@ -1709,7 +1717,7 @@
       <c r="B59" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59">
         <v>115000</v>
       </c>
       <c r="D59" t="s">
@@ -1729,7 +1737,7 @@
       <c r="B60" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60">
         <v>30000</v>
       </c>
       <c r="D60" t="s">
@@ -1749,7 +1757,7 @@
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61">
         <v>21000</v>
       </c>
       <c r="D61" t="s">
@@ -1769,7 +1777,7 @@
       <c r="B62" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62">
         <v>40000</v>
       </c>
       <c r="D62" t="s">
@@ -1789,7 +1797,7 @@
       <c r="B63" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63">
         <v>92000</v>
       </c>
       <c r="D63" t="s">
@@ -1809,7 +1817,7 @@
       <c r="B64" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64">
         <v>68000</v>
       </c>
       <c r="D64" t="s">
@@ -1829,7 +1837,7 @@
       <c r="B65" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65">
         <v>52000</v>
       </c>
       <c r="D65" t="s">
@@ -1849,7 +1857,7 @@
       <c r="B66" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66">
         <v>49000</v>
       </c>
       <c r="D66" t="s">
@@ -1869,7 +1877,7 @@
       <c r="B67" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67">
         <v>83000</v>
       </c>
       <c r="D67" t="s">
@@ -1889,7 +1897,7 @@
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68">
         <v>88000</v>
       </c>
       <c r="D68" t="s">
@@ -1909,7 +1917,7 @@
       <c r="B69" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69">
         <v>34500</v>
       </c>
       <c r="D69" t="s">
@@ -1929,7 +1937,7 @@
       <c r="B70" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70">
         <v>40000</v>
       </c>
       <c r="D70" t="s">
@@ -1949,7 +1957,7 @@
       <c r="B71" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71">
         <v>33500</v>
       </c>
       <c r="D71" t="s">
@@ -1969,7 +1977,7 @@
       <c r="B72" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72">
         <v>17500</v>
       </c>
       <c r="D72" t="s">
@@ -1989,7 +1997,7 @@
       <c r="B73" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73">
         <v>17500</v>
       </c>
       <c r="D73" t="s">
@@ -2009,7 +2017,7 @@
       <c r="B74" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74">
         <v>13500</v>
       </c>
       <c r="D74" t="s">
@@ -2029,7 +2037,7 @@
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75">
         <v>23500</v>
       </c>
       <c r="D75" t="s">
@@ -2049,7 +2057,7 @@
       <c r="B76" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76">
         <v>21500</v>
       </c>
       <c r="D76" t="s">
@@ -2069,7 +2077,7 @@
       <c r="B77" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77">
         <v>26000</v>
       </c>
       <c r="D77" t="s">
@@ -2089,7 +2097,7 @@
       <c r="B78" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78">
         <v>25500</v>
       </c>
       <c r="D78" t="s">
@@ -2109,7 +2117,7 @@
       <c r="B79" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79">
         <v>27000</v>
       </c>
       <c r="D79" t="s">
@@ -2129,7 +2137,7 @@
       <c r="B80" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80">
         <v>11500</v>
       </c>
       <c r="D80" t="s">
@@ -2149,7 +2157,7 @@
       <c r="B81" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81">
         <v>17500</v>
       </c>
       <c r="D81" t="s">
@@ -2169,7 +2177,7 @@
       <c r="B82" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82">
         <v>27000</v>
       </c>
       <c r="D82" t="s">
@@ -2189,7 +2197,7 @@
       <c r="B83" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83">
         <v>40000</v>
       </c>
       <c r="D83" t="s">
@@ -2209,7 +2217,7 @@
       <c r="B84" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84">
         <v>57000</v>
       </c>
       <c r="D84" t="s">
@@ -2229,7 +2237,7 @@
       <c r="B85" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85">
         <v>12500</v>
       </c>
       <c r="D85" t="s">
@@ -2249,7 +2257,7 @@
       <c r="B86" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86">
         <v>16000</v>
       </c>
       <c r="D86" t="s">
@@ -2269,7 +2277,7 @@
       <c r="B87" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87">
         <v>3200</v>
       </c>
       <c r="D87" t="s">
@@ -2289,7 +2297,7 @@
       <c r="B88" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88">
         <v>5000</v>
       </c>
       <c r="D88" t="s">
@@ -2309,7 +2317,7 @@
       <c r="B89" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89">
         <v>5200</v>
       </c>
       <c r="D89" t="s">
@@ -2329,7 +2337,7 @@
       <c r="B90" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90">
         <v>14500</v>
       </c>
       <c r="D90" t="s">
@@ -2349,7 +2357,7 @@
       <c r="B91" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91">
         <v>4500</v>
       </c>
       <c r="D91" t="s">
@@ -2369,7 +2377,7 @@
       <c r="B92" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92">
         <v>21000</v>
       </c>
       <c r="D92" t="s">
@@ -2389,7 +2397,7 @@
       <c r="B93" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93">
         <v>7200</v>
       </c>
       <c r="D93" t="s">
@@ -2409,7 +2417,7 @@
       <c r="B94" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94">
         <v>10800</v>
       </c>
       <c r="D94" t="s">
@@ -2429,7 +2437,7 @@
       <c r="B95" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95">
         <v>5500</v>
       </c>
       <c r="D95" t="s">
@@ -2449,7 +2457,7 @@
       <c r="B96" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96">
         <v>6500</v>
       </c>
       <c r="D96" t="s">
@@ -2469,7 +2477,7 @@
       <c r="B97" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97">
         <v>2800</v>
       </c>
       <c r="D97" t="s">
@@ -2489,7 +2497,7 @@
       <c r="B98" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98">
         <v>3000</v>
       </c>
       <c r="D98" t="s">
@@ -2509,7 +2517,7 @@
       <c r="B99" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99">
         <v>2700</v>
       </c>
       <c r="D99" t="s">
@@ -2529,7 +2537,7 @@
       <c r="B100" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100">
         <v>9500</v>
       </c>
       <c r="D100" t="s">
@@ -2549,7 +2557,7 @@
       <c r="B101" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101">
         <v>18000</v>
       </c>
       <c r="D101" t="s">
@@ -2569,7 +2577,7 @@
       <c r="B102" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102">
         <v>5200</v>
       </c>
       <c r="D102" t="s">
@@ -2589,7 +2597,7 @@
       <c r="B103" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103">
         <v>8500</v>
       </c>
       <c r="D103" t="s">
@@ -2609,7 +2617,7 @@
       <c r="B104" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104">
         <v>9800</v>
       </c>
       <c r="D104" t="s">
@@ -2629,7 +2637,7 @@
       <c r="B105" t="s">
         <v>6</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105">
         <v>11200</v>
       </c>
       <c r="D105" t="s">
@@ -2649,7 +2657,7 @@
       <c r="B106" t="s">
         <v>6</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106">
         <v>6200</v>
       </c>
       <c r="D106" t="s">
@@ -2669,7 +2677,7 @@
       <c r="B107" t="s">
         <v>6</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107">
         <v>14500</v>
       </c>
       <c r="D107" t="s">
@@ -2689,7 +2697,7 @@
       <c r="B108" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108">
         <v>3800</v>
       </c>
       <c r="D108" t="s">
@@ -2709,7 +2717,7 @@
       <c r="B109" t="s">
         <v>6</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109">
         <v>2500</v>
       </c>
       <c r="D109" t="s">
@@ -2729,7 +2737,7 @@
       <c r="B110" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110">
         <v>5800</v>
       </c>
       <c r="D110" t="s">
@@ -2749,7 +2757,7 @@
       <c r="B111" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111">
         <v>7200</v>
       </c>
       <c r="D111" t="s">
@@ -2769,7 +2777,7 @@
       <c r="B112" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112">
         <v>9800</v>
       </c>
       <c r="D112" t="s">
@@ -2789,7 +2797,7 @@
       <c r="B113" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113">
         <v>5500</v>
       </c>
       <c r="D113" t="s">
@@ -2809,7 +2817,7 @@
       <c r="B114" t="s">
         <v>6</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114">
         <v>9500</v>
       </c>
       <c r="D114" t="s">
@@ -2829,7 +2837,7 @@
       <c r="B115" t="s">
         <v>6</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115">
         <v>1700</v>
       </c>
       <c r="D115" t="s">
@@ -2849,7 +2857,7 @@
       <c r="B116" t="s">
         <v>6</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116">
         <v>1900</v>
       </c>
       <c r="D116" t="s">
@@ -2869,7 +2877,7 @@
       <c r="B117" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117">
         <v>40500</v>
       </c>
       <c r="D117" t="s">
@@ -2889,7 +2897,7 @@
       <c r="B118" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118">
         <v>27500</v>
       </c>
       <c r="D118" t="s">
@@ -2909,7 +2917,7 @@
       <c r="B119" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119">
         <v>25200</v>
       </c>
       <c r="D119" t="s">
@@ -2929,7 +2937,7 @@
       <c r="B120" t="s">
         <v>6</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120">
         <v>8500</v>
       </c>
       <c r="D120" t="s">
@@ -2949,7 +2957,7 @@
       <c r="B121" t="s">
         <v>6</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121">
         <v>11000</v>
       </c>
       <c r="D121" t="s">
@@ -2969,7 +2977,7 @@
       <c r="B122" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122">
         <v>6200</v>
       </c>
       <c r="D122" t="s">
@@ -2989,7 +2997,7 @@
       <c r="B123" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123">
         <v>950</v>
       </c>
       <c r="D123" t="s">
@@ -3009,7 +3017,7 @@
       <c r="B124" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124">
         <v>2000</v>
       </c>
       <c r="D124" t="s">
